--- a/xlsx/BMW 5系列_intext.xlsx
+++ b/xlsx/BMW 5系列_intext.xlsx
@@ -29,19 +29,19 @@
     <t>BMW</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_BMW 5系列</t>
+    <t>政策_政策_混合动力车辆_BMW 5系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_3%E7%B3%BB%E5%88%97</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E9%A6%AC</t>
   </si>
   <si>
-    <t>寶馬</t>
+    <t>宝马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>前置後驅</t>
+    <t>前置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>手動變速器</t>
+    <t>手动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E8%B7%9D</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E9%8E%96%E6%AD%BB%E7%85%9E%E8%BB%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>防鎖死煞車系統</t>
+    <t>防锁死煞车系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E7%A8%B3%E5%AE%9A%E7%A8%8B%E5%BA%8F</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E5%AF%A7%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>加里寧格勒</t>
+    <t>加里宁格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>自動變速器</t>
+    <t>自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%87</t>
   </si>
   <si>
-    <t>羅勇</t>
+    <t>罗勇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%8B%E9%99%BD</t>
   </si>
   <si>
-    <t>瀋陽</t>
+    <t>沈阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%99%A8%E5%AE%9D%E9%A9%AC</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%8A%A0%E9%81%94</t>
   </si>
   <si>
-    <t>雅加達</t>
+    <t>雅加达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%B0%BC%E6%B3%95%E5%88%A9%E7%BA%B3</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%BA%A7%E6%95%9E%E7%AF%B7%E8%BB%8A</t>
   </si>
   <si>
-    <t>雙座敞篷車</t>
+    <t>双座敞篷车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_Z</t>
